--- a/202107_EXP2/desiccation/20210713_EXP2/oyster_internal_temps.xlsx
+++ b/202107_EXP2/desiccation/20210713_EXP2/oyster_internal_temps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\[2021] NOPP_gigas_ploidy_temp\NOPP-cgigas-ploidy-temp\202107_EX2\desiccation\20210713_EXP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-gigas-ploidy-temp\202107_EXP2\desiccation\20210713_EXP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C5019-FAEA-426F-BC10-349372D81C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE52AF-A8EB-4FD1-8C6A-D1986505C94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18103" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
     <sheet name="average" sheetId="2" r:id="rId3"/>
     <sheet name="oyster_mean" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -645,6 +655,982 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0940726159230097E-2"/>
+                  <c:y val="0.14009368620589094"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>max!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>max!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD91-4E5B-BBEF-0D4CF6118AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="628445727"/>
+        <c:axId val="588906383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="628445727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588906383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="588906383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628445727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5915F2C4-CAC8-1AB8-1C0A-F55AED9F541A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -949,15 +1935,15 @@
       <selection pane="bottomLeft" activeCell="M7" sqref="K1:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.23046875" style="1"/>
-    <col min="4" max="7" width="13.3828125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.23046875" style="1"/>
-    <col min="12" max="12" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26953125" style="1"/>
+    <col min="4" max="7" width="13.36328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -983,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44390</v>
       </c>
@@ -1010,7 +1996,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44390</v>
       </c>
@@ -1037,7 +2023,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44390</v>
       </c>
@@ -1064,7 +2050,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44390</v>
       </c>
@@ -1091,7 +2077,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44390</v>
       </c>
@@ -1118,7 +2104,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44390</v>
       </c>
@@ -1145,7 +2131,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44390</v>
       </c>
@@ -1172,7 +2158,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44390</v>
       </c>
@@ -1199,7 +2185,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44390</v>
       </c>
@@ -1226,7 +2212,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44390</v>
       </c>
@@ -1253,7 +2239,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44390</v>
       </c>
@@ -1280,7 +2266,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44390</v>
       </c>
@@ -1307,7 +2293,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44390</v>
       </c>
@@ -1334,7 +2320,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44390</v>
       </c>
@@ -1361,7 +2347,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44390</v>
       </c>
@@ -1388,7 +2374,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44390</v>
       </c>
@@ -1415,7 +2401,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44390</v>
       </c>
@@ -1442,7 +2428,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44390</v>
       </c>
@@ -1469,7 +2455,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44390</v>
       </c>
@@ -1496,7 +2482,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44390</v>
       </c>
@@ -1523,7 +2509,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44390</v>
       </c>
@@ -1550,7 +2536,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44390</v>
       </c>
@@ -1577,7 +2563,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44390</v>
       </c>
@@ -1604,7 +2590,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44390</v>
       </c>
@@ -1631,7 +2617,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44390</v>
       </c>
@@ -1658,7 +2644,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44390</v>
       </c>
@@ -1685,7 +2671,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44390</v>
       </c>
@@ -1712,7 +2698,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44390</v>
       </c>
@@ -1739,7 +2725,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44390</v>
       </c>
@@ -1766,7 +2752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44390</v>
       </c>
@@ -1793,7 +2779,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44390</v>
       </c>
@@ -1820,7 +2806,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44390</v>
       </c>
@@ -1847,7 +2833,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44390</v>
       </c>
@@ -1874,7 +2860,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44390</v>
       </c>
@@ -1901,7 +2887,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44390</v>
       </c>
@@ -1928,7 +2914,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44390</v>
       </c>
@@ -1955,7 +2941,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44390</v>
       </c>
@@ -1982,7 +2968,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44390</v>
       </c>
@@ -2009,7 +2995,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44390</v>
       </c>
@@ -2036,7 +3022,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44390</v>
       </c>
@@ -2063,7 +3049,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44390</v>
       </c>
@@ -2090,7 +3076,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44390</v>
       </c>
@@ -2117,7 +3103,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44390</v>
       </c>
@@ -2144,7 +3130,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44390</v>
       </c>
@@ -2171,7 +3157,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44390</v>
       </c>
@@ -2198,7 +3184,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44390</v>
       </c>
@@ -2225,7 +3211,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44390</v>
       </c>
@@ -2252,7 +3238,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44390</v>
       </c>
@@ -2279,7 +3265,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44390</v>
       </c>
@@ -2306,7 +3292,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>44390</v>
       </c>
@@ -2333,7 +3319,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>44390</v>
       </c>
@@ -2360,7 +3346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44390</v>
       </c>
@@ -2387,7 +3373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44390</v>
       </c>
@@ -2414,7 +3400,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44390</v>
       </c>
@@ -2441,7 +3427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44390</v>
       </c>
@@ -2468,7 +3454,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44390</v>
       </c>
@@ -2495,7 +3481,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44390</v>
       </c>
@@ -2522,7 +3508,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44390</v>
       </c>
@@ -2549,7 +3535,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44390</v>
       </c>
@@ -2576,7 +3562,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44390</v>
       </c>
@@ -2603,7 +3589,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44390</v>
       </c>
@@ -2630,7 +3616,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44390</v>
       </c>
@@ -2657,7 +3643,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44390</v>
       </c>
@@ -2684,7 +3670,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44390</v>
       </c>
@@ -2711,7 +3697,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44390</v>
       </c>
@@ -2738,7 +3724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44390</v>
       </c>
@@ -2765,7 +3751,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44390</v>
       </c>
@@ -2792,7 +3778,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44390</v>
       </c>
@@ -2819,7 +3805,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44390</v>
       </c>
@@ -2846,7 +3832,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>44390</v>
       </c>
@@ -2873,7 +3859,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>44390</v>
       </c>
@@ -2900,7 +3886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44390</v>
       </c>
@@ -2927,7 +3913,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44390</v>
       </c>
@@ -2954,7 +3940,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>44390</v>
       </c>
@@ -2981,7 +3967,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>44390</v>
       </c>
@@ -3008,7 +3994,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>44390</v>
       </c>
@@ -3035,7 +4021,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>44390</v>
       </c>
@@ -3062,7 +4048,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>44390</v>
       </c>
@@ -3089,7 +4075,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>44390</v>
       </c>
@@ -3116,7 +4102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>44390</v>
       </c>
@@ -3143,7 +4129,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>44390</v>
       </c>
@@ -3170,7 +4156,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>44390</v>
       </c>
@@ -3197,7 +4183,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44390</v>
       </c>
@@ -3224,7 +4210,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44390</v>
       </c>
@@ -3251,7 +4237,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44390</v>
       </c>
@@ -3278,7 +4264,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44390</v>
       </c>
@@ -3305,7 +4291,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44390</v>
       </c>
@@ -3332,7 +4318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44390</v>
       </c>
@@ -3359,7 +4345,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44390</v>
       </c>
@@ -3386,7 +4372,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44390</v>
       </c>
@@ -3413,7 +4399,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44390</v>
       </c>
@@ -3440,7 +4426,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44390</v>
       </c>
@@ -3467,7 +4453,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44390</v>
       </c>
@@ -3494,7 +4480,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>44390</v>
       </c>
@@ -3521,7 +4507,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44390</v>
       </c>
@@ -3548,7 +4534,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44390</v>
       </c>
@@ -3575,7 +4561,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44390</v>
       </c>
@@ -3602,7 +4588,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44390</v>
       </c>
@@ -3629,7 +4615,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44390</v>
       </c>
@@ -3656,7 +4642,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44390</v>
       </c>
@@ -3683,7 +4669,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44390</v>
       </c>
@@ -3710,7 +4696,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44390</v>
       </c>
@@ -3737,7 +4723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44390</v>
       </c>
@@ -3764,7 +4750,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44390</v>
       </c>
@@ -3791,7 +4777,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44390</v>
       </c>
@@ -3818,7 +4804,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44390</v>
       </c>
@@ -3845,7 +4831,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44390</v>
       </c>
@@ -3872,7 +4858,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44390</v>
       </c>
@@ -3899,7 +4885,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44390</v>
       </c>
@@ -3926,7 +4912,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44390</v>
       </c>
@@ -3953,7 +4939,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44390</v>
       </c>
@@ -3980,7 +4966,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44390</v>
       </c>
@@ -4007,7 +4993,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>44390</v>
       </c>
@@ -4034,7 +5020,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44390</v>
       </c>
@@ -4061,7 +5047,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44390</v>
       </c>
@@ -4088,7 +5074,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44390</v>
       </c>
@@ -4115,7 +5101,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44390</v>
       </c>
@@ -4142,7 +5128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>44390</v>
       </c>
@@ -4169,7 +5155,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44390</v>
       </c>
@@ -4196,7 +5182,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>44390</v>
       </c>
@@ -4223,7 +5209,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44390</v>
       </c>
@@ -4250,7 +5236,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>44390</v>
       </c>
@@ -4277,7 +5263,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>44390</v>
       </c>
@@ -4304,7 +5290,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>44390</v>
       </c>
@@ -4331,7 +5317,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>44390</v>
       </c>
@@ -4358,7 +5344,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>44390</v>
       </c>
@@ -4385,7 +5371,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44390</v>
       </c>
@@ -4412,7 +5398,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44390</v>
       </c>
@@ -4439,7 +5425,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44390</v>
       </c>
@@ -4466,7 +5452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44390</v>
       </c>
@@ -4493,7 +5479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44390</v>
       </c>
@@ -4520,7 +5506,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44390</v>
       </c>
@@ -4547,7 +5533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44390</v>
       </c>
@@ -4574,7 +5560,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44390</v>
       </c>
@@ -4601,7 +5587,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44390</v>
       </c>
@@ -4628,7 +5614,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44390</v>
       </c>
@@ -4655,7 +5641,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44390</v>
       </c>
@@ -4682,7 +5668,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44390</v>
       </c>
@@ -4709,7 +5695,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44390</v>
       </c>
@@ -4736,7 +5722,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44390</v>
       </c>
@@ -4763,7 +5749,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44390</v>
       </c>
@@ -4790,7 +5776,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44390</v>
       </c>
@@ -4817,7 +5803,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44390</v>
       </c>
@@ -4844,7 +5830,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44390</v>
       </c>
@@ -4871,7 +5857,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44390</v>
       </c>
@@ -4898,7 +5884,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>44390</v>
       </c>
@@ -4925,7 +5911,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>44390</v>
       </c>
@@ -4952,7 +5938,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>44390</v>
       </c>
@@ -4979,7 +5965,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>44390</v>
       </c>
@@ -5006,7 +5992,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44390</v>
       </c>
@@ -5033,7 +6019,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44390</v>
       </c>
@@ -5060,7 +6046,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44390</v>
       </c>
@@ -5087,7 +6073,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44390</v>
       </c>
@@ -5114,7 +6100,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44390</v>
       </c>
@@ -5141,7 +6127,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44390</v>
       </c>
@@ -5168,7 +6154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44390</v>
       </c>
@@ -5205,17 +6191,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEE90E3-A5E0-4F81-816D-8D07304FE416}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -5226,7 +6212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5238,7 +6224,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5250,7 +6236,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5262,7 +6248,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5274,7 +6260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5286,7 +6272,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5298,7 +6284,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5312,26 +6298,27 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E59F5C3-4DA0-425B-9CA1-B4A4858D09A2}">
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.23046875" style="1"/>
-    <col min="9" max="9" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26953125" style="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5363,7 +6350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44390</v>
       </c>
@@ -5397,7 +6384,7 @@
         <v>0.66916199666282439</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44390</v>
       </c>
@@ -5431,7 +6418,7 @@
         <v>0.69972216708570245</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44390</v>
       </c>
@@ -5465,7 +6452,7 @@
         <v>1.4584047601555774</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44390</v>
       </c>
@@ -5499,7 +6486,7 @@
         <v>3.7599349876176218</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44390</v>
       </c>
@@ -5533,7 +6520,7 @@
         <v>3.1617505699638335</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44390</v>
       </c>
@@ -5566,8 +6553,20 @@
         <f t="shared" si="1"/>
         <v>3.2993602073398614</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <f>AVERAGE(I7:I27)</f>
+        <v>34.699206349206349</v>
+      </c>
+      <c r="L7">
+        <f>STDEV(I7:I27)</f>
+        <v>2.0385280377876973</v>
+      </c>
+      <c r="M7">
+        <f>MAX(C2:H32)</f>
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44390</v>
       </c>
@@ -5601,7 +6600,7 @@
         <v>2.529778207230394</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44390</v>
       </c>
@@ -5635,7 +6634,7 @@
         <v>2.057142030423099</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44390</v>
       </c>
@@ -5669,7 +6668,7 @@
         <v>3.20821861266757</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44390</v>
       </c>
@@ -5703,7 +6702,7 @@
         <v>3.4690456580704914</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44390</v>
       </c>
@@ -5737,7 +6736,7 @@
         <v>2.5825590237419753</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44390</v>
       </c>
@@ -5771,7 +6770,7 @@
         <v>2.8280440826361453</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44390</v>
       </c>
@@ -5805,7 +6804,7 @@
         <v>2.8526498402557516</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44390</v>
       </c>
@@ -5839,7 +6838,7 @@
         <v>2.5272844451439576</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44390</v>
       </c>
@@ -5873,7 +6872,7 @@
         <v>2.4313233707866209</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44390</v>
       </c>
@@ -5907,7 +6906,7 @@
         <v>2.5871477215909744</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44390</v>
       </c>
@@ -5941,7 +6940,7 @@
         <v>3.1981678782980874</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44390</v>
       </c>
@@ -5975,7 +6974,7 @@
         <v>2.8372130300310134</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44390</v>
       </c>
@@ -6009,7 +7008,7 @@
         <v>2.5197111827438441</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44390</v>
       </c>
@@ -6043,7 +7042,7 @@
         <v>2.5676729629071597</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44390</v>
       </c>
@@ -6077,7 +7076,7 @@
         <v>2.2186206926326477</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44390</v>
       </c>
@@ -6111,7 +7110,7 @@
         <v>2.1118317483486693</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44390</v>
       </c>
@@ -6145,7 +7144,7 @@
         <v>2.1813476975892145</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44390</v>
       </c>
@@ -6179,7 +7178,7 @@
         <v>2.3090281746031369</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44390</v>
       </c>
@@ -6213,7 +7212,7 @@
         <v>2.1824680219115882</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44390</v>
       </c>
@@ -6247,7 +7246,7 @@
         <v>2.2086823623549288</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44390</v>
       </c>
@@ -6281,7 +7280,7 @@
         <v>1.3091133555875814</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44390</v>
       </c>
@@ -6315,7 +7314,7 @@
         <v>1.5433009355850789</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44390</v>
       </c>
@@ -6349,7 +7348,7 @@
         <v>1.7587400793371004</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44390</v>
       </c>
@@ -6383,7 +7382,7 @@
         <v>1.0081886948604635</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44390</v>
       </c>
@@ -6417,487 +7416,487 @@
         <v>0.895823643358446</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44390</v>
       </c>
@@ -6905,7 +7904,7 @@
         <v>0.51358796296296294</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44390</v>
       </c>
@@ -6913,7 +7912,7 @@
         <v>0.52053240740740747</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44390</v>
       </c>
@@ -6921,7 +7920,7 @@
         <v>0.52747685185185189</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44390</v>
       </c>
@@ -6929,7 +7928,7 @@
         <v>0.53442129629629631</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44390</v>
       </c>
@@ -6937,7 +7936,7 @@
         <v>0.54136574074074073</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44390</v>
       </c>
@@ -6959,14 +7958,14 @@
       <selection activeCell="L29" sqref="L28:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.23046875" style="1"/>
-    <col min="9" max="9" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
@@ -6992,7 +7991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>19.7</v>
       </c>
@@ -7020,7 +8019,7 @@
         <v>1.3125039682479618</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>24.8</v>
       </c>
@@ -7048,7 +8047,7 @@
         <v>1.4584047601555774</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C4" s="1">
         <v>29.2</v>
       </c>
@@ -7076,7 +8075,7 @@
         <v>3.7599349876176218</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C5" s="1">
         <v>25.1</v>
       </c>
@@ -7104,7 +8103,7 @@
         <v>3.1617505699638335</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" s="1">
         <v>31.6</v>
       </c>
@@ -7132,7 +8131,7 @@
         <v>3.2993602073398614</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
         <v>34.1</v>
       </c>
@@ -7160,7 +8159,7 @@
         <v>2.529778207230394</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>29.7</v>
       </c>
@@ -7188,7 +8187,7 @@
         <v>2.057142030423099</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>23.1</v>
       </c>
@@ -7216,7 +8215,7 @@
         <v>3.20821861266757</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>30.7</v>
       </c>
@@ -7244,7 +8243,7 @@
         <v>3.4690456580704914</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C11" s="1">
         <v>29.6</v>
       </c>
@@ -7272,7 +8271,7 @@
         <v>2.5825590237419753</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
         <v>28.6</v>
       </c>
@@ -7300,7 +8299,7 @@
         <v>2.8280440826361453</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <v>28.1</v>
       </c>
@@ -7328,7 +8327,7 @@
         <v>2.8526498402557516</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" s="1">
         <v>28.1</v>
       </c>
@@ -7356,7 +8355,7 @@
         <v>2.5272844451439576</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C15" s="1">
         <v>28.1</v>
       </c>
@@ -7384,7 +8383,7 @@
         <v>2.4313233707866209</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C16" s="1">
         <v>27.9</v>
       </c>
@@ -7412,7 +8411,7 @@
         <v>2.5871477215909744</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="1">
         <v>27.9</v>
       </c>
@@ -7440,7 +8439,7 @@
         <v>3.1981678782980874</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="1">
         <v>27.9</v>
       </c>
@@ -7468,7 +8467,7 @@
         <v>2.8372130300310134</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>27.9</v>
       </c>
@@ -7496,7 +8495,7 @@
         <v>2.5197111827438441</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>27.7</v>
       </c>
@@ -7524,7 +8523,7 @@
         <v>2.5676729629071597</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>29.9</v>
       </c>
@@ -7552,7 +8551,7 @@
         <v>2.2186206926326477</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="1">
         <v>31.2</v>
       </c>
@@ -7580,7 +8579,7 @@
         <v>2.1118317483486693</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>30.4</v>
       </c>
@@ -7608,7 +8607,7 @@
         <v>2.1813476975892145</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <v>29.9</v>
       </c>
@@ -7636,7 +8635,7 @@
         <v>2.3090281746031369</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" s="1">
         <v>39.299999999999997</v>
       </c>
@@ -7664,7 +8663,7 @@
         <v>2.1824680219115882</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C26" s="1">
         <v>21.9</v>
       </c>
@@ -7692,7 +8691,7 @@
         <v>2.2086823623549288</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C27" s="1">
         <v>35.799999999999997</v>
       </c>
